--- a/Running projects/J. Outlet BA Mall Quetta/PO/005- Purchase order- for 2 way valve shan controls.xlsx
+++ b/Running projects/J. Outlet BA Mall Quetta/PO/005- Purchase order- for 2 way valve shan controls.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\Running projects\J. Outlet BA Mall Quetta\PO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B93C3D84-60EB-4424-B5BC-A7198F274465}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64794C75-3798-4365-A8C1-A0539B6F815F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -948,16 +948,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>182214</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>143996</xdr:rowOff>
+      <xdr:colOff>525114</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>86846</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -980,7 +980,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7867650" y="1609725"/>
+          <a:off x="8210550" y="352425"/>
           <a:ext cx="8878539" cy="8030696"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1258,8 +1258,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A9:H44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G49" sqref="G49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
